--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/125.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6EEDBB-5993-4EF3-8266-C55FD3FF9D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF999D08-EB5A-4A2B-AC67-3483162373C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1448,6 +1448,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>320</v>
+      </c>
       <c r="O2" t="s">
         <v>320</v>
       </c>
@@ -1459,6 +1462,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE57F960-E829-46B4-9A91-2BADBDAD02A6}">
+  <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1570,6 +1574,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C7A67-8CB9-4147-B05D-B3083ED33ED2}">
+  <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2665,6 +2670,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53EE90D-BEE5-46DF-8A08-E5872CCB307E}">
+  <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2863,6 +2869,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D8AA5C-BB39-41EE-A899-DE73798F5E03}">
+  <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3277,6 +3284,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7973E647-054F-49F9-B094-50F00649C598}">
+  <sheetPr codeName="Planilha14"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3421,6 +3429,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635CEFF-6DAC-44F7-AF3B-B06839DA92B9}">
+  <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3847,6 +3856,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB46F02-7E04-40C4-BCD7-5E8D1640833A}">
+  <sheetPr codeName="Planilha16"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4698,6 +4708,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3126EFE7-71B6-470F-A91B-A1449FCF6EF7}">
+  <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4752,6 +4763,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45BA660-5787-41D0-A56C-F5837FDDB69E}">
+  <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4989,6 +5001,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2452C4FA-E426-4DA3-93AF-C99F7CA501C7}">
+  <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5394,6 +5407,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF0E52-1267-4513-8904-2069DDCC23C2}">
+  <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5706,6 +5720,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6371D86-9FBA-4CA5-BB69-D7B90A92814E}">
+  <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
